--- a/tests/fixtures/excel/EquipmentList_TEST.xlsx
+++ b/tests/fixtures/excel/EquipmentList_TEST.xlsx
@@ -397,82 +397,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Area</v>
+        <v>TOOL</v>
       </c>
       <c r="B1" t="str">
-        <v>Line</v>
+        <v>TYPE</v>
       </c>
       <c r="C1" t="str">
-        <v>Station</v>
+        <v>AREA</v>
       </c>
       <c r="D1" t="str">
-        <v>Robot Name</v>
+        <v>STATION</v>
       </c>
       <c r="E1" t="str">
-        <v>Robot Model</v>
+        <v>DESCRIPTION</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>BodyShop</v>
+        <v>WeldGun01</v>
       </c>
       <c r="B2" t="str">
-        <v>Line1</v>
+        <v>Weld Gun</v>
       </c>
       <c r="C2" t="str">
-        <v>10</v>
+        <v>Body Shop</v>
       </c>
       <c r="D2" t="str">
-        <v>R1</v>
+        <v>OP10</v>
       </c>
       <c r="E2" t="str">
-        <v>KUKA_KR210</v>
+        <v>Servo Gun</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>BodyShop</v>
+        <v>Gripper01</v>
       </c>
       <c r="B3" t="str">
-        <v>Line1</v>
+        <v>Gripper</v>
       </c>
       <c r="C3" t="str">
-        <v>20</v>
+        <v>Body Shop</v>
       </c>
       <c r="D3" t="str">
-        <v>R2</v>
+        <v>OP20</v>
       </c>
       <c r="E3" t="str">
-        <v>KUKA_KR210</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>BodyShop</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Line2</v>
-      </c>
-      <c r="C4" t="str">
-        <v>10</v>
-      </c>
-      <c r="D4" t="str">
-        <v>R3</v>
-      </c>
-      <c r="E4" t="str">
-        <v>ABB_6700</v>
+        <v>Material Handling</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
   </ignoredErrors>
 </worksheet>
 </file>